--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F234263-2F65-4188-ADA1-870DB3FB0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -42,32 +48,20 @@
     <sheet name="tc048" sheetId="22" r:id="rId33"/>
     <sheet name="tc049" sheetId="24" r:id="rId34"/>
     <sheet name="tc050" sheetId="36" r:id="rId35"/>
-    <sheet name="tc044" sheetId="38" r:id="rId36"/>
-    <sheet name="tc026" sheetId="40" r:id="rId37"/>
-    <sheet name="tc032" sheetId="41" r:id="rId38"/>
-    <sheet name="tc041" sheetId="42" r:id="rId39"/>
-    <sheet name="tc010" sheetId="43" r:id="rId40"/>
-    <sheet name="tc020" sheetId="44" r:id="rId41"/>
+    <sheet name="tc059" sheetId="45" r:id="rId36"/>
+    <sheet name="tc044" sheetId="38" r:id="rId37"/>
+    <sheet name="tc026" sheetId="40" r:id="rId38"/>
+    <sheet name="tc032" sheetId="41" r:id="rId39"/>
+    <sheet name="tc041" sheetId="42" r:id="rId40"/>
+    <sheet name="tc010" sheetId="43" r:id="rId41"/>
+    <sheet name="tc020" sheetId="44" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="100">
   <si>
     <t>projectName</t>
   </si>
@@ -338,18 +332,42 @@
   <si>
     <t>DF-317</t>
   </si>
+  <si>
+    <t>Releasename</t>
+  </si>
+  <si>
+    <t>Release TR Notification 12-01-2026</t>
+  </si>
+  <si>
+    <t>Cyclename</t>
+  </si>
+  <si>
+    <t>TestCycle TR Notification 12-01-2026</t>
+  </si>
+  <si>
+    <t>SubCyclename</t>
+  </si>
+  <si>
+    <t>Sub TestCycle TR Notification 12-01-2026</t>
+  </si>
+  <si>
+    <t>Suitename</t>
+  </si>
+  <si>
+    <t>TestSuite TR Notification 12-01-2026</t>
+  </si>
+  <si>
+    <t>rq</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +401,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.2"/>
+      <sz val="8.1999999999999993"/>
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -394,152 +412,8 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,194 +426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -747,253 +435,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1008,69 +454,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1348,21 +747,19 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.575" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1384,20 +781,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -1417,16 +812,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1435,23 +830,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1479,25 +872,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.425" customWidth="1"/>
-    <col min="2" max="2" width="31.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="28.575" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1536,24 +927,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.575" customWidth="1"/>
-    <col min="7" max="7" width="32.575" customWidth="1"/>
-    <col min="8" max="8" width="29.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.54296875" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1610,22 +999,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1679,20 +1066,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
@@ -1742,23 +1127,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="20.425" customWidth="1"/>
-    <col min="4" max="4" width="18.425" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1783,41 +1166,39 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
@@ -1843,44 +1224,42 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.2833333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1901,10 +1280,10 @@
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1913,20 +1292,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -1958,23 +1335,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2007,24 +1380,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="36.575" customWidth="1"/>
+    <col min="1" max="1" width="36.54296875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.575" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2058,20 +1429,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
@@ -2115,20 +1484,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="17.08984375" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
@@ -2172,20 +1539,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
@@ -2229,24 +1594,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.425" customWidth="1"/>
-    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.425" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2273,22 +1636,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="31.425" customWidth="1"/>
+    <col min="8" max="8" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2351,25 +1712,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.425" customWidth="1"/>
-    <col min="3" max="3" width="21.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.425" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2402,20 +1761,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
@@ -2459,23 +1816,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.575" customWidth="1"/>
-    <col min="2" max="2" width="16.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2496,26 +1851,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="15.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.425" customWidth="1"/>
-    <col min="5" max="5" width="27.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2554,24 +1907,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="18.575" customWidth="1"/>
-    <col min="3" max="3" width="15.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.1333333333333" customWidth="1"/>
+    <col min="1" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2610,25 +1959,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.425" customWidth="1"/>
-    <col min="3" max="3" width="12.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.575" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2651,8 +1998,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="28">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2673,20 +2020,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.08984375" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2708,8 +2053,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="28">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2730,20 +2075,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
@@ -2799,20 +2142,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
@@ -2850,20 +2191,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
@@ -2919,30 +2258,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.8583333333333" customWidth="1"/>
-    <col min="4" max="5" width="22.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
-    <col min="8" max="8" width="42.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="8" max="8" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2968,7 +2303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2996,22 +2331,95 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2EC515-C552-4DDF-977F-E873966B2F94}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -3025,7 +2433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3041,20 +2449,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -3086,24 +2492,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3137,29 +2541,80 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.9166666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="12.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.8333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3188,7 +2643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:8">
+    <row r="2" spans="1:8" ht="42">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3216,79 +2671,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="19.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.575" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="28" spans="1:5">
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3305,7 +2701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:5">
+    <row r="2" spans="1:5" ht="56">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3324,30 +2720,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +2761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:6">
+    <row r="2" spans="1:6" ht="42">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3389,20 +2783,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
@@ -3410,30 +2800,28 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.575" customWidth="1"/>
-    <col min="3" max="3" width="20.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3460,25 +2848,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.425" customWidth="1"/>
-    <col min="4" max="4" width="14.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="32.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3511,26 +2897,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="28.575" customWidth="1"/>
-    <col min="5" max="5" width="19.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3569,29 +2953,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.425" customWidth="1"/>
-    <col min="3" max="3" width="21.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="18.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -3607,7 +2989,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" ht="14.5" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3625,6 +3007,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F234263-2F65-4188-ADA1-870DB3FB0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD1538-E7EF-4964-A951-FEE8F1372464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -49,19 +49,20 @@
     <sheet name="tc049" sheetId="24" r:id="rId34"/>
     <sheet name="tc050" sheetId="36" r:id="rId35"/>
     <sheet name="tc059" sheetId="45" r:id="rId36"/>
-    <sheet name="tc044" sheetId="38" r:id="rId37"/>
-    <sheet name="tc026" sheetId="40" r:id="rId38"/>
-    <sheet name="tc032" sheetId="41" r:id="rId39"/>
-    <sheet name="tc041" sheetId="42" r:id="rId40"/>
-    <sheet name="tc010" sheetId="43" r:id="rId41"/>
-    <sheet name="tc020" sheetId="44" r:id="rId42"/>
+    <sheet name="tc060" sheetId="46" r:id="rId37"/>
+    <sheet name="tc044" sheetId="38" r:id="rId38"/>
+    <sheet name="tc026" sheetId="40" r:id="rId39"/>
+    <sheet name="tc032" sheetId="41" r:id="rId40"/>
+    <sheet name="tc041" sheetId="42" r:id="rId41"/>
+    <sheet name="tc010" sheetId="43" r:id="rId42"/>
+    <sheet name="tc020" sheetId="44" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="101">
   <si>
     <t>projectName</t>
   </si>
@@ -361,6 +362,9 @@
   </si>
   <si>
     <t>tc</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -2338,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2EC515-C552-4DDF-977F-E873966B2F94}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2410,6 +2414,83 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649F85E-A00A-4D7E-8521-4F9A9E343504}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="36.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2452,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2495,7 +2576,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2544,60 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2674,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2723,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD1538-E7EF-4964-A951-FEE8F1372464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8415972E-7222-48CB-B7B3-C4910DC6ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,21 @@
     <sheet name="tc050" sheetId="36" r:id="rId35"/>
     <sheet name="tc059" sheetId="45" r:id="rId36"/>
     <sheet name="tc060" sheetId="46" r:id="rId37"/>
-    <sheet name="tc044" sheetId="38" r:id="rId38"/>
-    <sheet name="tc026" sheetId="40" r:id="rId39"/>
-    <sheet name="tc032" sheetId="41" r:id="rId40"/>
-    <sheet name="tc041" sheetId="42" r:id="rId41"/>
-    <sheet name="tc010" sheetId="43" r:id="rId42"/>
-    <sheet name="tc020" sheetId="44" r:id="rId43"/>
+    <sheet name="tc061" sheetId="47" r:id="rId38"/>
+    <sheet name="tc062" sheetId="48" r:id="rId39"/>
+    <sheet name="tc044" sheetId="38" r:id="rId40"/>
+    <sheet name="tc026" sheetId="40" r:id="rId41"/>
+    <sheet name="tc032" sheetId="41" r:id="rId42"/>
+    <sheet name="tc041" sheetId="42" r:id="rId43"/>
+    <sheet name="tc010" sheetId="43" r:id="rId44"/>
+    <sheet name="tc020" sheetId="44" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="101">
   <si>
     <t>projectName</t>
   </si>
@@ -2342,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2EC515-C552-4DDF-977F-E873966B2F94}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2417,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649F85E-A00A-4D7E-8521-4F9A9E343504}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2491,88 +2493,142 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC7FFB-02DC-44A1-8367-0CF45CAF0BB4}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B5B1F-8746-4756-94F1-88740BCD638E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2630,6 +2686,92 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.5">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2678,7 +2820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2755,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2804,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
